--- a/Data/Traits/Raw/Taxa Traits+transation.xlsx
+++ b/Data/Traits/Raw/Taxa Traits+transation.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au467796/Library/CloudStorage/Dropbox/Aarhus Assistant Professor/Projects/3. Ecography PaleoTraits Paper/Data/Traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alejandroordonez/Library/CloudStorage/Dropbox/Aarhus Assistant Professor/Projects/3. Ecography PaleoTraits Paper/PaleoNovelty/Data/Traits/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D34892-0ABF-AE49-B78E-4DD2A877AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F890F94-7ED6-124A-92F3-5DCC37C86E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26440" xr2:uid="{D132F041-D0C6-1B41-ADDD-3E3548615F16}"/>
+    <workbookView xWindow="0" yWindow="3800" windowWidth="51200" windowHeight="26440" activeTab="3" xr2:uid="{D132F041-D0C6-1B41-ADDD-3E3548615F16}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="FIA-Traits_Genus" sheetId="5" r:id="rId2"/>
     <sheet name="FIA-Traits_Family" sheetId="6" r:id="rId3"/>
-    <sheet name="Trait Info TRanslate" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="Trait Info TRanslate" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AR$135</definedName>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3061" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="689">
   <si>
     <t>ABIES</t>
   </si>
@@ -2247,6 +2248,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2604,9 @@
     <tableColumn id="51" xr3:uid="{80CDBDAE-973B-7740-B476-CE4B0372268E}" name="Shade tol (cat)"/>
     <tableColumn id="40" xr3:uid="{A1A6A900-B4F1-E342-90C7-A7EDE5C78DBA}" name="Min. of min temp (C)"/>
     <tableColumn id="41" xr3:uid="{4D016AE7-D726-4F46-A4B3-94A7FEC01412}" name="Max. of min temp (C)"/>
-    <tableColumn id="52" xr3:uid="{75704EE0-B2C6-FD4F-9E99-41E6EE6D04C3}" name="InPollenDBS" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{0106EDAA-CC13-9647-BF33-558CC1502064}" name="Name" dataDxfId="2">
+      <calculatedColumnFormula>VLOOKUP(#REF!,#REF!,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2608,7 +2614,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{64F5B709-A813-7A42-BCA2-D7D30B301453}" name="Table2" displayName="Table2" ref="A1:AF43" totalsRowShown="0">
-  <autoFilter ref="A1:AF43" xr:uid="{64F5B709-A813-7A42-BCA2-D7D30B301453}"/>
+  <autoFilter ref="A1:AF43" xr:uid="{64F5B709-A813-7A42-BCA2-D7D30B301453}">
+    <filterColumn colId="31">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="32">
     <tableColumn id="1" xr3:uid="{3AA5AD39-F807-5B4B-91D2-B563ED8BE083}" name="Family" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{EE20BA9A-93FE-6344-B37A-A81DFCFBFB15}" name="Min. of Seed Size (mg)"/>
@@ -2641,9 +2653,49 @@
     <tableColumn id="52" xr3:uid="{F58AB97B-0506-F84C-B510-F36E0950B973}" name="Shade tol (cat)"/>
     <tableColumn id="40" xr3:uid="{822DE7FA-2CB1-3442-9535-78CFA3469207}" name="Min. of min temp (C)"/>
     <tableColumn id="41" xr3:uid="{0625E1F1-23DC-1C40-ACDF-77DA5AD25779}" name="Max. of min temp (C)"/>
-    <tableColumn id="53" xr3:uid="{3BAC3D23-6899-EC44-A158-04EFBF94FEFA}" name="InPollenDBS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{9F0D319D-D903-374D-8CA6-42BCFADCEE3F}" name="Name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E992B9D8-F7D3-8145-9A57-4710EA585A35}" name="Table4" displayName="Table4" ref="A1:AE43" totalsRowShown="0">
+  <autoFilter ref="A1:AE43" xr:uid="{E992B9D8-F7D3-8145-9A57-4710EA585A35}"/>
+  <tableColumns count="31">
+    <tableColumn id="1" xr3:uid="{6C034058-2CA9-E840-B22A-01A9ABB578DE}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{D0C85847-BAF8-1648-93BD-5B5C35323866}" name="Min. of Seed Size (mg)"/>
+    <tableColumn id="3" xr3:uid="{943F5B40-B9BE-A646-901B-B036D06251B2}" name="Max. of Seed Size (mg)"/>
+    <tableColumn id="4" xr3:uid="{67ED3E59-3872-C34B-92EB-9DC4C57602CC}" name="Min. of Height (m)"/>
+    <tableColumn id="5" xr3:uid="{17EB1ABF-317F-1C4D-AF26-D676A65D87F9}" name="Max. of Height (m)"/>
+    <tableColumn id="6" xr3:uid="{B02525F5-60DB-CA42-826E-97AB461AFDA8}" name="Min. of Leaf (log) Nmass (%)"/>
+    <tableColumn id="7" xr3:uid="{B2EE083E-3055-6E4B-8051-6F92DC99340C}" name="Max. of Leaf (log) Nmass (%)"/>
+    <tableColumn id="8" xr3:uid="{F5D084DC-583B-DD41-8085-D03317FB2AB6}" name="Min. of LMA (log) (g/m2)"/>
+    <tableColumn id="9" xr3:uid="{40ABD7D4-2624-5F4F-B7A2-0955D40F245F}" name="Max. of LMA (log) (g/m2)"/>
+    <tableColumn id="10" xr3:uid="{F79889D3-07D3-8347-ACA3-7F993F6DEC75}" name="C:N ratio (cat)"/>
+    <tableColumn id="11" xr3:uid="{24410BEB-17DD-AD41-8D01-578B2FA63BDA}" name="Min. of Tree diameter (m)"/>
+    <tableColumn id="12" xr3:uid="{968CE1AD-C4FC-5346-9EA9-D75072BE03EB}" name="Max. of Tree diameter (m)"/>
+    <tableColumn id="13" xr3:uid="{F3B511BF-5463-0849-9B61-4F8F5680E7D3}" name="Min. of wood density (mg/cm3)"/>
+    <tableColumn id="14" xr3:uid="{7D83EBE5-20CC-3A4A-8BFB-62EB5522A311}" name="Max. of wood density (mg/cm3)"/>
+    <tableColumn id="15" xr3:uid="{CC1B06A8-6144-1A4E-A39A-99438E813B1E}" name="Leaf Phenology (cat)"/>
+    <tableColumn id="16" xr3:uid="{10C3179D-8E4D-D646-946F-52CBF1E6EA60}" name="Life span (cat)"/>
+    <tableColumn id="17" xr3:uid="{61D99EC8-831D-434C-8275-37734ECA3A8E}" name="Min. of Life span (yr)"/>
+    <tableColumn id="18" xr3:uid="{D0177E1F-6AD2-C749-9FC0-500A13AAF10D}" name="Max. of Life span (yr)"/>
+    <tableColumn id="19" xr3:uid="{9C4739D8-F6D2-2E47-8024-5CC2CB45C468}" name="Resprout ability (cat)"/>
+    <tableColumn id="20" xr3:uid="{EE2D95CB-388A-9346-9259-B4672F7D9F38}" name="Anaerobic tol (cat)"/>
+    <tableColumn id="21" xr3:uid="{93CFCE79-F424-B94E-8441-4E6645E68A64}" name="CaCO3 tol (cat)"/>
+    <tableColumn id="22" xr3:uid="{31C790D6-6C66-FD43-BB5A-783876AA9BBF}" name="drought tol (cat)"/>
+    <tableColumn id="23" xr3:uid="{9B64820A-74E1-7D43-94A6-65C909CA7CE6}" name="fire tol (cat)"/>
+    <tableColumn id="24" xr3:uid="{A68D2428-D7E1-FF43-9932-E260F4AA9E6F}" name="Min. of min frost-free days"/>
+    <tableColumn id="25" xr3:uid="{A2320A11-1D0C-6145-9660-666E13A1440B}" name="Max. of min frost-free days"/>
+    <tableColumn id="26" xr3:uid="{4CC8DF4F-30E3-3648-86D7-074D5E17A1BD}" name="Min. of pH"/>
+    <tableColumn id="27" xr3:uid="{862F8BD5-01CC-DB40-BCFA-AA907A3A746E}" name="Max. of pH"/>
+    <tableColumn id="28" xr3:uid="{A12CFC13-58BF-2746-A530-AE8E81EF356F}" name="salinity tol (cat)"/>
+    <tableColumn id="29" xr3:uid="{721D9CE2-C465-7F4B-B547-C1AD184F56FB}" name="Shade tol (cat)"/>
+    <tableColumn id="30" xr3:uid="{D7924113-9E37-0D45-999E-7B11DE3815DC}" name="Min. of min temp (C)"/>
+    <tableColumn id="31" xr3:uid="{D6756228-A4A6-6146-89FE-4881FFD8E974}" name="Max. of min temp (C)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2946,8 +2998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846D3041-097F-804A-831C-031C357C6AD6}">
   <dimension ref="A1:AR135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A60" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11559,8 +11611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1755BD1F-4C79-5A48-9C63-BCFE91CFA6A0}">
   <dimension ref="A1:AF103"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE102" sqref="A1:AE102"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF102" sqref="AF1:AF102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11682,7 +11734,7 @@
         <v>484</v>
       </c>
       <c r="AF1" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -13051,7 +13103,7 @@
         <v>-36.6</v>
       </c>
       <c r="AF18" t="s">
-        <v>372</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -16836,7 +16888,7 @@
         <v>-8.3000000000000007</v>
       </c>
       <c r="AF73" t="s">
-        <v>366</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:32" hidden="1">
@@ -19039,10 +19091,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E19EBC-B7D0-5241-9706-F60CA3E6C5D9}">
-  <dimension ref="A1:AI43"/>
+  <dimension ref="A1:AF43"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AJ35" sqref="AJ35"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF35" sqref="AF2:AF35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19069,7 +19121,7 @@
     <col min="31" max="31" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>352</v>
       </c>
@@ -19164,11 +19216,10 @@
         <v>484</v>
       </c>
       <c r="AF1" t="s">
-        <v>678</v>
-      </c>
-      <c r="AI1" s="5"/>
-    </row>
-    <row r="2" spans="1:35">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="5" t="s">
         <v>371</v>
       </c>
@@ -19263,11 +19314,10 @@
         <v>-13.8</v>
       </c>
       <c r="AF2" t="s">
-        <v>371</v>
-      </c>
-      <c r="AI2" s="5"/>
-    </row>
-    <row r="3" spans="1:35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" hidden="1">
       <c r="A3" s="5" t="s">
         <v>495</v>
       </c>
@@ -19361,9 +19411,8 @@
       <c r="AE3">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="AI3" s="5"/>
-    </row>
-    <row r="4" spans="1:35">
+    </row>
+    <row r="4" spans="1:32" hidden="1">
       <c r="A4" s="5" t="s">
         <v>496</v>
       </c>
@@ -19445,9 +19494,8 @@
       <c r="AE4">
         <v>-27.7</v>
       </c>
-      <c r="AI4" s="5"/>
-    </row>
-    <row r="5" spans="1:35">
+    </row>
+    <row r="5" spans="1:32" hidden="1">
       <c r="A5" s="5" t="s">
         <v>497</v>
       </c>
@@ -19535,9 +19583,8 @@
       <c r="AE5">
         <v>-29.444444444444443</v>
       </c>
-      <c r="AI5" s="5"/>
-    </row>
-    <row r="6" spans="1:35">
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" s="5" t="s">
         <v>136</v>
       </c>
@@ -19571,9 +19618,8 @@
       <c r="AF6" t="s">
         <v>136</v>
       </c>
-      <c r="AI6" s="5"/>
-    </row>
-    <row r="7" spans="1:35">
+    </row>
+    <row r="7" spans="1:32" hidden="1">
       <c r="A7" s="5" t="s">
         <v>498</v>
       </c>
@@ -19661,9 +19707,8 @@
       <c r="AE7">
         <v>-7.7777777777777777</v>
       </c>
-      <c r="AI7" s="5"/>
-    </row>
-    <row r="8" spans="1:35">
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" s="5" t="s">
         <v>356</v>
       </c>
@@ -19752,11 +19797,10 @@
         <v>-28.888888888888889</v>
       </c>
       <c r="AF8" t="s">
-        <v>356</v>
-      </c>
-      <c r="AI8" s="5"/>
-    </row>
-    <row r="9" spans="1:35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="5" t="s">
         <v>139</v>
       </c>
@@ -19829,9 +19873,8 @@
       <c r="AF9" t="s">
         <v>139</v>
       </c>
-      <c r="AI9" s="5"/>
-    </row>
-    <row r="10" spans="1:35">
+    </row>
+    <row r="10" spans="1:32" hidden="1">
       <c r="A10" s="5" t="s">
         <v>499</v>
       </c>
@@ -19925,9 +19968,8 @@
       <c r="AE10">
         <v>-30</v>
       </c>
-      <c r="AI10" s="5"/>
-    </row>
-    <row r="11" spans="1:35">
+    </row>
+    <row r="11" spans="1:32" hidden="1">
       <c r="A11" s="5" t="s">
         <v>500</v>
       </c>
@@ -20009,9 +20051,8 @@
       <c r="AE11">
         <v>-27.777777777777779</v>
       </c>
-      <c r="AI11" s="5"/>
-    </row>
-    <row r="12" spans="1:35">
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" s="5" t="s">
         <v>149</v>
       </c>
@@ -20039,9 +20080,8 @@
       <c r="AF12" t="s">
         <v>149</v>
       </c>
-      <c r="AI12" s="5"/>
-    </row>
-    <row r="13" spans="1:35">
+    </row>
+    <row r="13" spans="1:32" hidden="1">
       <c r="A13" s="5" t="s">
         <v>501</v>
       </c>
@@ -20120,9 +20160,8 @@
       <c r="AE13">
         <v>4.4444444444444446</v>
       </c>
-      <c r="AI13" s="5"/>
-    </row>
-    <row r="14" spans="1:35">
+    </row>
+    <row r="14" spans="1:32" hidden="1">
       <c r="A14" s="5" t="s">
         <v>502</v>
       </c>
@@ -20216,9 +20255,8 @@
       <c r="AE14">
         <v>-29.444444444444443</v>
       </c>
-      <c r="AI14" s="5"/>
-    </row>
-    <row r="15" spans="1:35">
+    </row>
+    <row r="15" spans="1:32" hidden="1">
       <c r="A15" s="5" t="s">
         <v>503</v>
       </c>
@@ -20297,9 +20335,8 @@
       <c r="AE15">
         <v>4.4444444444444446</v>
       </c>
-      <c r="AI15" s="5"/>
-    </row>
-    <row r="16" spans="1:35">
+    </row>
+    <row r="16" spans="1:32" hidden="1">
       <c r="A16" s="5" t="s">
         <v>504</v>
       </c>
@@ -20393,9 +20430,8 @@
       <c r="AE16">
         <v>-22.2</v>
       </c>
-      <c r="AI16" s="5"/>
-    </row>
-    <row r="17" spans="1:35">
+    </row>
+    <row r="17" spans="1:32" hidden="1">
       <c r="A17" s="5" t="s">
         <v>505</v>
       </c>
@@ -20483,9 +20519,8 @@
       <c r="AE17">
         <v>-29.444444444444443</v>
       </c>
-      <c r="AI17" s="5"/>
-    </row>
-    <row r="18" spans="1:35">
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" s="5" t="s">
         <v>361</v>
       </c>
@@ -20580,11 +20615,10 @@
         <v>-10.555555555555555</v>
       </c>
       <c r="AF18" t="s">
-        <v>361</v>
-      </c>
-      <c r="AI18" s="5"/>
-    </row>
-    <row r="19" spans="1:35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" s="5" t="s">
         <v>164</v>
       </c>
@@ -20600,9 +20634,8 @@
       <c r="AF19" t="s">
         <v>164</v>
       </c>
-      <c r="AI19" s="5"/>
-    </row>
-    <row r="20" spans="1:35">
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" s="5" t="s">
         <v>362</v>
       </c>
@@ -20697,11 +20730,10 @@
         <v>-2.7777777777777777</v>
       </c>
       <c r="AF20" t="s">
-        <v>362</v>
-      </c>
-      <c r="AI20" s="5"/>
-    </row>
-    <row r="21" spans="1:35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" hidden="1">
       <c r="A21" s="5" t="s">
         <v>506</v>
       </c>
@@ -20795,9 +20827,8 @@
       <c r="AE21">
         <v>-11.666666666666666</v>
       </c>
-      <c r="AI21" s="5"/>
-    </row>
-    <row r="22" spans="1:35">
+    </row>
+    <row r="22" spans="1:32" hidden="1">
       <c r="A22" s="5" t="s">
         <v>507</v>
       </c>
@@ -20891,9 +20922,8 @@
       <c r="AE22">
         <v>-19.444444444444443</v>
       </c>
-      <c r="AI22" s="5"/>
-    </row>
-    <row r="23" spans="1:35">
+    </row>
+    <row r="23" spans="1:32" hidden="1">
       <c r="A23" s="5" t="s">
         <v>508</v>
       </c>
@@ -20981,9 +21011,8 @@
       <c r="AE23">
         <v>-13.888888888888889</v>
       </c>
-      <c r="AI23" s="5"/>
-    </row>
-    <row r="24" spans="1:35">
+    </row>
+    <row r="24" spans="1:32" hidden="1">
       <c r="A24" s="5" t="s">
         <v>509</v>
       </c>
@@ -21077,9 +21106,8 @@
       <c r="AE24">
         <v>-8.3333333333333339</v>
       </c>
-      <c r="AI24" s="5"/>
-    </row>
-    <row r="25" spans="1:35">
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" s="5" t="s">
         <v>364</v>
       </c>
@@ -21174,11 +21202,10 @@
         <v>-43.333333333333336</v>
       </c>
       <c r="AF25" t="s">
-        <v>364</v>
-      </c>
-      <c r="AI25" s="5"/>
-    </row>
-    <row r="26" spans="1:35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" hidden="1">
       <c r="A26" s="5" t="s">
         <v>510</v>
       </c>
@@ -21251,9 +21278,8 @@
       <c r="AE26">
         <v>4.4444444444444446</v>
       </c>
-      <c r="AI26" s="5"/>
-    </row>
-    <row r="27" spans="1:35">
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" s="5" t="s">
         <v>177</v>
       </c>
@@ -21338,9 +21364,8 @@
       <c r="AF27" t="s">
         <v>177</v>
       </c>
-      <c r="AI27" s="5"/>
-    </row>
-    <row r="28" spans="1:35">
+    </row>
+    <row r="28" spans="1:32" hidden="1">
       <c r="A28" s="5" t="s">
         <v>511</v>
       </c>
@@ -21386,9 +21411,8 @@
       <c r="AE28">
         <v>4.4400000000000004</v>
       </c>
-      <c r="AI28" s="5"/>
-    </row>
-    <row r="29" spans="1:35">
+    </row>
+    <row r="29" spans="1:32" hidden="1">
       <c r="A29" s="5" t="s">
         <v>512</v>
       </c>
@@ -21401,9 +21425,8 @@
       <c r="O29" t="s">
         <v>637</v>
       </c>
-      <c r="AI29" s="5"/>
-    </row>
-    <row r="30" spans="1:35">
+    </row>
+    <row r="30" spans="1:32" hidden="1">
       <c r="A30" s="5" t="s">
         <v>513</v>
       </c>
@@ -21497,9 +21520,8 @@
       <c r="AE30">
         <v>-16.666666666666668</v>
       </c>
-      <c r="AI30" s="5"/>
-    </row>
-    <row r="31" spans="1:35">
+    </row>
+    <row r="31" spans="1:32" hidden="1">
       <c r="A31" s="5" t="s">
         <v>514</v>
       </c>
@@ -21587,9 +21609,8 @@
       <c r="AE31">
         <v>-13.888888888888889</v>
       </c>
-      <c r="AI31" s="5"/>
-    </row>
-    <row r="32" spans="1:35">
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" s="5" t="s">
         <v>367</v>
       </c>
@@ -21642,11 +21663,10 @@
         <v>4.4444444444444446</v>
       </c>
       <c r="AF32" t="s">
-        <v>367</v>
-      </c>
-      <c r="AI32" s="5"/>
-    </row>
-    <row r="33" spans="1:35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" s="5" t="s">
         <v>198</v>
       </c>
@@ -21704,9 +21724,8 @@
       <c r="AF33" t="s">
         <v>198</v>
       </c>
-      <c r="AI33" s="5"/>
-    </row>
-    <row r="34" spans="1:35">
+    </row>
+    <row r="34" spans="1:32" hidden="1">
       <c r="A34" s="5" t="s">
         <v>515</v>
       </c>
@@ -21746,9 +21765,8 @@
       <c r="P34" t="s">
         <v>644</v>
       </c>
-      <c r="AI34" s="5"/>
-    </row>
-    <row r="35" spans="1:35">
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" s="5" t="s">
         <v>369</v>
       </c>
@@ -21843,10 +21861,10 @@
         <v>-2.7777777777777777</v>
       </c>
       <c r="AF35" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" hidden="1">
       <c r="A36" s="5" t="s">
         <v>516</v>
       </c>
@@ -21941,7 +21959,7 @@
         <v>-16.666666666666668</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:32" hidden="1">
       <c r="A37" s="5" t="s">
         <v>517</v>
       </c>
@@ -22036,7 +22054,7 @@
         <v>-13.888888888888889</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:32" hidden="1">
       <c r="A38" s="5" t="s">
         <v>518</v>
       </c>
@@ -22056,7 +22074,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:32" hidden="1">
       <c r="A39" s="5" t="s">
         <v>519</v>
       </c>
@@ -22145,7 +22163,7 @@
         <v>-23.33</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:32" hidden="1">
       <c r="A40" s="5" t="s">
         <v>520</v>
       </c>
@@ -22216,7 +22234,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:32" hidden="1">
       <c r="A41" s="5" t="s">
         <v>521</v>
       </c>
@@ -22311,7 +22329,7 @@
         <v>-19.444444444444443</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:32" hidden="1">
       <c r="A42" s="5" t="s">
         <v>522</v>
       </c>
@@ -22400,7 +22418,7 @@
         <v>-12.222222222222221</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:32" hidden="1">
       <c r="A43" s="5"/>
     </row>
   </sheetData>
@@ -22412,6 +22430,3763 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F7479E-7C1A-944D-920D-FDC13BBEC2C0}">
+  <dimension ref="A1:AE43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27.5" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" customWidth="1"/>
+    <col min="13" max="13" width="29.5" customWidth="1"/>
+    <col min="14" max="14" width="29.83203125" customWidth="1"/>
+    <col min="15" max="15" width="20.1640625" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="20.5" customWidth="1"/>
+    <col min="18" max="18" width="20.83203125" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.83203125" customWidth="1"/>
+    <col min="22" max="22" width="16.83203125" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" customWidth="1"/>
+    <col min="24" max="24" width="25.5" customWidth="1"/>
+    <col min="25" max="25" width="25.83203125" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="12.33203125" customWidth="1"/>
+    <col min="28" max="28" width="16.33203125" customWidth="1"/>
+    <col min="29" max="29" width="15.5" customWidth="1"/>
+    <col min="30" max="30" width="20.6640625" customWidth="1"/>
+    <col min="31" max="31" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H1" t="s">
+        <v>473</v>
+      </c>
+      <c r="I1" t="s">
+        <v>474</v>
+      </c>
+      <c r="J1" t="s">
+        <v>680</v>
+      </c>
+      <c r="K1" t="s">
+        <v>475</v>
+      </c>
+      <c r="L1" t="s">
+        <v>476</v>
+      </c>
+      <c r="M1" t="s">
+        <v>477</v>
+      </c>
+      <c r="N1" t="s">
+        <v>478</v>
+      </c>
+      <c r="O1" t="s">
+        <v>647</v>
+      </c>
+      <c r="P1" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>479</v>
+      </c>
+      <c r="R1" t="s">
+        <v>480</v>
+      </c>
+      <c r="S1" t="s">
+        <v>652</v>
+      </c>
+      <c r="T1" t="s">
+        <v>663</v>
+      </c>
+      <c r="U1" t="s">
+        <v>664</v>
+      </c>
+      <c r="V1" t="s">
+        <v>666</v>
+      </c>
+      <c r="W1" t="s">
+        <v>667</v>
+      </c>
+      <c r="X1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>482</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>669</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>670</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>674</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2">
+        <v>7.6</v>
+      </c>
+      <c r="C2">
+        <v>71.7</v>
+      </c>
+      <c r="D2">
+        <v>24.993600000000001</v>
+      </c>
+      <c r="E2">
+        <v>74.980800000000002</v>
+      </c>
+      <c r="F2">
+        <v>-0.15490195998574319</v>
+      </c>
+      <c r="G2">
+        <v>0.20574554094266218</v>
+      </c>
+      <c r="H2">
+        <v>2.4056074496245734</v>
+      </c>
+      <c r="I2">
+        <v>2.4056074496245734</v>
+      </c>
+      <c r="J2" t="s">
+        <v>662</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>0.31</v>
+      </c>
+      <c r="N2">
+        <v>0.4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>637</v>
+      </c>
+      <c r="P2" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q2">
+        <v>150</v>
+      </c>
+      <c r="R2">
+        <v>500</v>
+      </c>
+      <c r="S2" t="s">
+        <v>650</v>
+      </c>
+      <c r="T2" t="s">
+        <v>654</v>
+      </c>
+      <c r="U2" t="s">
+        <v>657</v>
+      </c>
+      <c r="V2" t="s">
+        <v>658</v>
+      </c>
+      <c r="W2" t="s">
+        <v>682</v>
+      </c>
+      <c r="X2">
+        <v>50</v>
+      </c>
+      <c r="Y2">
+        <v>120</v>
+      </c>
+      <c r="Z2">
+        <v>4.7</v>
+      </c>
+      <c r="AA2">
+        <v>6.6124999999999998</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>654</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AD2">
+        <v>-46.1</v>
+      </c>
+      <c r="AE2">
+        <v>-30.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3">
+        <v>19.3</v>
+      </c>
+      <c r="C3">
+        <v>201.5</v>
+      </c>
+      <c r="D3">
+        <v>8.9916</v>
+      </c>
+      <c r="E3">
+        <v>29.8704</v>
+      </c>
+      <c r="F3">
+        <v>0.25956943016905165</v>
+      </c>
+      <c r="G3">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="H3">
+        <v>1.53</v>
+      </c>
+      <c r="I3">
+        <v>1.8403744875488275</v>
+      </c>
+      <c r="J3" t="s">
+        <v>662</v>
+      </c>
+      <c r="K3">
+        <v>0.25</v>
+      </c>
+      <c r="L3">
+        <v>1.8</v>
+      </c>
+      <c r="M3">
+        <v>0.43</v>
+      </c>
+      <c r="N3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O3" t="s">
+        <v>639</v>
+      </c>
+      <c r="P3" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q3">
+        <v>60</v>
+      </c>
+      <c r="R3">
+        <v>400</v>
+      </c>
+      <c r="S3" t="s">
+        <v>651</v>
+      </c>
+      <c r="T3" t="s">
+        <v>682</v>
+      </c>
+      <c r="U3" t="s">
+        <v>679</v>
+      </c>
+      <c r="V3" t="s">
+        <v>656</v>
+      </c>
+      <c r="W3" t="s">
+        <v>679</v>
+      </c>
+      <c r="X3">
+        <v>80</v>
+      </c>
+      <c r="Y3">
+        <v>180</v>
+      </c>
+      <c r="Z3">
+        <v>4.6499999999999995</v>
+      </c>
+      <c r="AA3">
+        <v>7.3124999999999991</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>675</v>
+      </c>
+      <c r="AD3">
+        <v>-43.888888888888886</v>
+      </c>
+      <c r="AE3">
+        <v>-25.555555555555554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="C4">
+        <v>2.06</v>
+      </c>
+      <c r="D4">
+        <v>10.058400000000001</v>
+      </c>
+      <c r="E4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.35266479965110059</v>
+      </c>
+      <c r="G4">
+        <v>0.35266479965110059</v>
+      </c>
+      <c r="H4">
+        <v>1.9860996250551295</v>
+      </c>
+      <c r="I4">
+        <v>1.9860996250551295</v>
+      </c>
+      <c r="J4" t="s">
+        <v>662</v>
+      </c>
+      <c r="K4">
+        <v>0.6</v>
+      </c>
+      <c r="L4">
+        <v>0.6</v>
+      </c>
+      <c r="M4">
+        <v>0.37</v>
+      </c>
+      <c r="N4">
+        <v>0.52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>639</v>
+      </c>
+      <c r="P4" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="R4">
+        <v>100</v>
+      </c>
+      <c r="S4" t="s">
+        <v>651</v>
+      </c>
+      <c r="T4" t="s">
+        <v>657</v>
+      </c>
+      <c r="U4" t="s">
+        <v>654</v>
+      </c>
+      <c r="V4" t="s">
+        <v>658</v>
+      </c>
+      <c r="W4" t="s">
+        <v>679</v>
+      </c>
+      <c r="X4">
+        <v>180</v>
+      </c>
+      <c r="Y4">
+        <v>200</v>
+      </c>
+      <c r="Z4">
+        <v>4.55</v>
+      </c>
+      <c r="AA4">
+        <v>7.4</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD4">
+        <v>-31.111111111111111</v>
+      </c>
+      <c r="AE4">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>1.21</v>
+      </c>
+      <c r="D5">
+        <v>10.058400000000001</v>
+      </c>
+      <c r="E5">
+        <v>24.993600000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.2528530309798932</v>
+      </c>
+      <c r="G5">
+        <v>0.3596102233032179</v>
+      </c>
+      <c r="H5">
+        <v>1.56</v>
+      </c>
+      <c r="I5">
+        <v>1.9281179926938745</v>
+      </c>
+      <c r="J5" t="s">
+        <v>665</v>
+      </c>
+      <c r="K5">
+        <v>0.15</v>
+      </c>
+      <c r="L5">
+        <v>1.2</v>
+      </c>
+      <c r="M5">
+        <v>0.45</v>
+      </c>
+      <c r="N5">
+        <v>0.6</v>
+      </c>
+      <c r="O5" t="s">
+        <v>639</v>
+      </c>
+      <c r="P5" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q5">
+        <v>200</v>
+      </c>
+      <c r="R5">
+        <v>366</v>
+      </c>
+      <c r="S5" t="s">
+        <v>650</v>
+      </c>
+      <c r="T5" t="s">
+        <v>683</v>
+      </c>
+      <c r="U5" t="s">
+        <v>683</v>
+      </c>
+      <c r="V5" t="s">
+        <v>658</v>
+      </c>
+      <c r="W5" t="s">
+        <v>679</v>
+      </c>
+      <c r="X5">
+        <v>60</v>
+      </c>
+      <c r="Y5">
+        <v>150</v>
+      </c>
+      <c r="Z5">
+        <v>3.9666666666666668</v>
+      </c>
+      <c r="AA5">
+        <v>7.166666666666667</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>673</v>
+      </c>
+      <c r="AD5">
+        <v>-52.222222222222221</v>
+      </c>
+      <c r="AE5">
+        <v>-32.222222222222221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6">
+        <v>18.3</v>
+      </c>
+      <c r="C6">
+        <v>18.3</v>
+      </c>
+      <c r="D6">
+        <v>7.9248000000000003</v>
+      </c>
+      <c r="E6">
+        <v>7.9248000000000003</v>
+      </c>
+      <c r="F6">
+        <v>0.33137891584078705</v>
+      </c>
+      <c r="G6">
+        <v>0.33137891584078705</v>
+      </c>
+      <c r="H6">
+        <v>1.6884012072019319</v>
+      </c>
+      <c r="I6">
+        <v>1.6884012072019319</v>
+      </c>
+      <c r="J6" t="s">
+        <v>662</v>
+      </c>
+      <c r="K6">
+        <v>0.3</v>
+      </c>
+      <c r="L6">
+        <v>0.3</v>
+      </c>
+      <c r="M6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O6" t="s">
+        <v>639</v>
+      </c>
+      <c r="P6" t="s">
+        <v>641</v>
+      </c>
+      <c r="S6" t="s">
+        <v>651</v>
+      </c>
+      <c r="T6" t="s">
+        <v>657</v>
+      </c>
+      <c r="U6" t="s">
+        <v>657</v>
+      </c>
+      <c r="V6" t="s">
+        <v>657</v>
+      </c>
+      <c r="W6" t="s">
+        <v>657</v>
+      </c>
+      <c r="X6">
+        <v>80</v>
+      </c>
+      <c r="Y6">
+        <v>80</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>7.4</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD6">
+        <v>-36.6</v>
+      </c>
+      <c r="AE6">
+        <v>-36.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7">
+        <v>2771.8</v>
+      </c>
+      <c r="C7">
+        <v>15141</v>
+      </c>
+      <c r="D7">
+        <v>15.24</v>
+      </c>
+      <c r="E7">
+        <v>60.96</v>
+      </c>
+      <c r="F7">
+        <v>0.21434120568158865</v>
+      </c>
+      <c r="G7">
+        <v>0.41497334797081797</v>
+      </c>
+      <c r="H7">
+        <v>1.5546102852261641</v>
+      </c>
+      <c r="I7">
+        <v>1.8986741201213309</v>
+      </c>
+      <c r="J7" t="s">
+        <v>662</v>
+      </c>
+      <c r="K7">
+        <v>0.7</v>
+      </c>
+      <c r="L7">
+        <v>2.5</v>
+      </c>
+      <c r="M7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N7">
+        <v>0.66</v>
+      </c>
+      <c r="O7" t="s">
+        <v>639</v>
+      </c>
+      <c r="P7" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q7">
+        <v>200</v>
+      </c>
+      <c r="R7">
+        <v>500</v>
+      </c>
+      <c r="S7" t="s">
+        <v>651</v>
+      </c>
+      <c r="T7" t="s">
+        <v>683</v>
+      </c>
+      <c r="U7" t="s">
+        <v>679</v>
+      </c>
+      <c r="V7" t="s">
+        <v>656</v>
+      </c>
+      <c r="W7" t="s">
+        <v>658</v>
+      </c>
+      <c r="X7">
+        <v>120</v>
+      </c>
+      <c r="Y7">
+        <v>240</v>
+      </c>
+      <c r="Z7">
+        <v>4.5625</v>
+      </c>
+      <c r="AA7">
+        <v>7.1000000000000005</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>654</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD7">
+        <v>-43.888888888888886</v>
+      </c>
+      <c r="AE7">
+        <v>-23.333333333333332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8">
+        <v>1811.59</v>
+      </c>
+      <c r="C8">
+        <v>3467.3</v>
+      </c>
+      <c r="D8">
+        <v>7.9248000000000003</v>
+      </c>
+      <c r="E8">
+        <v>35.052</v>
+      </c>
+      <c r="F8">
+        <v>0.41266210737258135</v>
+      </c>
+      <c r="G8">
+        <v>0.41266210737258135</v>
+      </c>
+      <c r="H8">
+        <v>1.76343754814664</v>
+      </c>
+      <c r="I8">
+        <v>1.76343754814664</v>
+      </c>
+      <c r="J8" t="s">
+        <v>679</v>
+      </c>
+      <c r="K8">
+        <v>0.25</v>
+      </c>
+      <c r="L8">
+        <v>1.3</v>
+      </c>
+      <c r="M8">
+        <v>0.4</v>
+      </c>
+      <c r="N8">
+        <v>0.4</v>
+      </c>
+      <c r="O8" t="s">
+        <v>639</v>
+      </c>
+      <c r="P8" t="s">
+        <v>681</v>
+      </c>
+      <c r="S8" t="s">
+        <v>651</v>
+      </c>
+      <c r="T8" t="s">
+        <v>653</v>
+      </c>
+      <c r="U8" t="s">
+        <v>654</v>
+      </c>
+      <c r="V8" t="s">
+        <v>665</v>
+      </c>
+      <c r="W8" t="s">
+        <v>682</v>
+      </c>
+      <c r="X8">
+        <v>150</v>
+      </c>
+      <c r="Y8">
+        <v>150</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8">
+        <v>6.55</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>673</v>
+      </c>
+      <c r="AD8">
+        <v>-36.111111111111107</v>
+      </c>
+      <c r="AE8">
+        <v>-28.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9">
+        <v>83.89</v>
+      </c>
+      <c r="C9">
+        <v>108.8</v>
+      </c>
+      <c r="D9">
+        <v>18.288</v>
+      </c>
+      <c r="E9">
+        <v>28.041600000000003</v>
+      </c>
+      <c r="F9">
+        <v>0.37839790094813769</v>
+      </c>
+      <c r="G9">
+        <v>0.37839790094813769</v>
+      </c>
+      <c r="H9">
+        <v>1.9172146296835499</v>
+      </c>
+      <c r="I9">
+        <v>1.9172146296835499</v>
+      </c>
+      <c r="J9" t="s">
+        <v>662</v>
+      </c>
+      <c r="K9">
+        <v>0.6</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.47</v>
+      </c>
+      <c r="N9">
+        <v>0.49</v>
+      </c>
+      <c r="O9" t="s">
+        <v>639</v>
+      </c>
+      <c r="P9" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q9">
+        <v>150</v>
+      </c>
+      <c r="R9">
+        <v>200</v>
+      </c>
+      <c r="S9" t="s">
+        <v>651</v>
+      </c>
+      <c r="T9" t="s">
+        <v>661</v>
+      </c>
+      <c r="U9" t="s">
+        <v>661</v>
+      </c>
+      <c r="V9" t="s">
+        <v>656</v>
+      </c>
+      <c r="W9" t="s">
+        <v>658</v>
+      </c>
+      <c r="X9">
+        <v>120</v>
+      </c>
+      <c r="Y9">
+        <v>150</v>
+      </c>
+      <c r="Z9">
+        <v>5.2</v>
+      </c>
+      <c r="AA9">
+        <v>7.75</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>657</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD9">
+        <v>-43.888888888888886</v>
+      </c>
+      <c r="AE9">
+        <v>-29.444444444444443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="C10">
+        <v>85.2</v>
+      </c>
+      <c r="D10">
+        <v>14.9352</v>
+      </c>
+      <c r="E10">
+        <v>29.8704</v>
+      </c>
+      <c r="F10">
+        <v>0.18880916898689759</v>
+      </c>
+      <c r="G10">
+        <v>0.18880916898689759</v>
+      </c>
+      <c r="H10">
+        <v>1.8104988592581204</v>
+      </c>
+      <c r="I10">
+        <v>1.8104988592581204</v>
+      </c>
+      <c r="J10" t="s">
+        <v>662</v>
+      </c>
+      <c r="K10">
+        <v>0.5</v>
+      </c>
+      <c r="L10">
+        <v>0.6</v>
+      </c>
+      <c r="M10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N10">
+        <v>0.64</v>
+      </c>
+      <c r="O10" t="s">
+        <v>639</v>
+      </c>
+      <c r="P10" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q10">
+        <v>125</v>
+      </c>
+      <c r="R10">
+        <v>125</v>
+      </c>
+      <c r="S10" t="s">
+        <v>651</v>
+      </c>
+      <c r="T10" t="s">
+        <v>654</v>
+      </c>
+      <c r="U10" t="s">
+        <v>654</v>
+      </c>
+      <c r="V10" t="s">
+        <v>657</v>
+      </c>
+      <c r="W10" t="s">
+        <v>661</v>
+      </c>
+      <c r="X10">
+        <v>120</v>
+      </c>
+      <c r="Y10">
+        <v>160</v>
+      </c>
+      <c r="Z10">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AA10">
+        <v>7.5</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD10">
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="AE10">
+        <v>-31.666666666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11">
+        <v>266</v>
+      </c>
+      <c r="C11">
+        <v>266</v>
+      </c>
+      <c r="D11">
+        <v>30.48</v>
+      </c>
+      <c r="E11">
+        <v>30.48</v>
+      </c>
+      <c r="F11">
+        <v>0.3083427604477561</v>
+      </c>
+      <c r="G11">
+        <v>0.3083427604477561</v>
+      </c>
+      <c r="H11">
+        <v>1.7850839290327827</v>
+      </c>
+      <c r="I11">
+        <v>1.7850839290327827</v>
+      </c>
+      <c r="J11" t="s">
+        <v>662</v>
+      </c>
+      <c r="K11">
+        <v>3.5</v>
+      </c>
+      <c r="L11">
+        <v>3.5</v>
+      </c>
+      <c r="M11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O11" t="s">
+        <v>639</v>
+      </c>
+      <c r="P11" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q11">
+        <v>400</v>
+      </c>
+      <c r="R11">
+        <v>400</v>
+      </c>
+      <c r="S11" t="s">
+        <v>651</v>
+      </c>
+      <c r="T11" t="s">
+        <v>657</v>
+      </c>
+      <c r="U11" t="s">
+        <v>657</v>
+      </c>
+      <c r="V11" t="s">
+        <v>662</v>
+      </c>
+      <c r="W11" t="s">
+        <v>661</v>
+      </c>
+      <c r="X11">
+        <v>92</v>
+      </c>
+      <c r="Y11">
+        <v>92</v>
+      </c>
+      <c r="Z11">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA11">
+        <v>7.2</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD11">
+        <v>-42.222222222222221</v>
+      </c>
+      <c r="AE11">
+        <v>-42.222222222222221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12">
+        <v>19.63</v>
+      </c>
+      <c r="C12">
+        <v>142.32</v>
+      </c>
+      <c r="D12">
+        <v>11.8872</v>
+      </c>
+      <c r="E12">
+        <v>29.8704</v>
+      </c>
+      <c r="F12">
+        <v>0.25527250510330607</v>
+      </c>
+      <c r="G12">
+        <v>0.52</v>
+      </c>
+      <c r="H12">
+        <v>1.856985199745905</v>
+      </c>
+      <c r="I12">
+        <v>1.9430951486635273</v>
+      </c>
+      <c r="J12" t="s">
+        <v>665</v>
+      </c>
+      <c r="K12">
+        <v>0.3</v>
+      </c>
+      <c r="L12">
+        <v>1.5</v>
+      </c>
+      <c r="M12">
+        <v>0.45</v>
+      </c>
+      <c r="N12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O12" t="s">
+        <v>639</v>
+      </c>
+      <c r="P12" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q12">
+        <v>250</v>
+      </c>
+      <c r="R12">
+        <v>250</v>
+      </c>
+      <c r="S12" t="s">
+        <v>650</v>
+      </c>
+      <c r="T12" t="s">
+        <v>679</v>
+      </c>
+      <c r="U12" t="s">
+        <v>682</v>
+      </c>
+      <c r="V12" t="s">
+        <v>658</v>
+      </c>
+      <c r="W12" t="s">
+        <v>682</v>
+      </c>
+      <c r="X12">
+        <v>80</v>
+      </c>
+      <c r="Y12">
+        <v>200</v>
+      </c>
+      <c r="Z12">
+        <v>4.6285714285714281</v>
+      </c>
+      <c r="AA12">
+        <v>7.371428571428571</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD12">
+        <v>-43.888888888888886</v>
+      </c>
+      <c r="AE12">
+        <v>-16.666666666666668</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13">
+        <v>4965.18</v>
+      </c>
+      <c r="C13">
+        <v>14026</v>
+      </c>
+      <c r="D13">
+        <v>9.7536000000000005</v>
+      </c>
+      <c r="E13">
+        <v>40.233600000000003</v>
+      </c>
+      <c r="F13">
+        <v>0.41497334797081797</v>
+      </c>
+      <c r="G13">
+        <v>0.47129171105893858</v>
+      </c>
+      <c r="H13">
+        <v>1.36</v>
+      </c>
+      <c r="I13">
+        <v>1.785156151952302</v>
+      </c>
+      <c r="J13" t="s">
+        <v>662</v>
+      </c>
+      <c r="K13">
+        <v>0.7</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>0.36</v>
+      </c>
+      <c r="N13">
+        <v>0.53</v>
+      </c>
+      <c r="O13" t="s">
+        <v>639</v>
+      </c>
+      <c r="P13" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q13">
+        <v>75</v>
+      </c>
+      <c r="R13">
+        <v>75</v>
+      </c>
+      <c r="S13" t="s">
+        <v>650</v>
+      </c>
+      <c r="T13" t="s">
+        <v>653</v>
+      </c>
+      <c r="U13" t="s">
+        <v>682</v>
+      </c>
+      <c r="V13" t="s">
+        <v>658</v>
+      </c>
+      <c r="W13" t="s">
+        <v>682</v>
+      </c>
+      <c r="X13">
+        <v>105</v>
+      </c>
+      <c r="Y13">
+        <v>180</v>
+      </c>
+      <c r="Z13">
+        <v>5.5250000000000004</v>
+      </c>
+      <c r="AA13">
+        <v>7.2749999999999995</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>672</v>
+      </c>
+      <c r="AD13">
+        <v>-36.111111111111107</v>
+      </c>
+      <c r="AE13">
+        <v>-19.444444444444443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3.3</v>
+      </c>
+      <c r="D14">
+        <v>15.24</v>
+      </c>
+      <c r="E14">
+        <v>53.34</v>
+      </c>
+      <c r="F14">
+        <v>0.10720996964786837</v>
+      </c>
+      <c r="G14">
+        <v>0.10720996964786837</v>
+      </c>
+      <c r="H14">
+        <v>2.0791812477848026</v>
+      </c>
+      <c r="I14">
+        <v>2.0791812477848026</v>
+      </c>
+      <c r="J14" t="s">
+        <v>662</v>
+      </c>
+      <c r="K14">
+        <v>0.6</v>
+      </c>
+      <c r="L14">
+        <v>2.6</v>
+      </c>
+      <c r="M14">
+        <v>0.48</v>
+      </c>
+      <c r="N14">
+        <v>0.49</v>
+      </c>
+      <c r="O14" t="s">
+        <v>639</v>
+      </c>
+      <c r="P14" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q14">
+        <v>180</v>
+      </c>
+      <c r="R14">
+        <v>900</v>
+      </c>
+      <c r="S14" t="s">
+        <v>649</v>
+      </c>
+      <c r="T14" t="s">
+        <v>654</v>
+      </c>
+      <c r="U14" t="s">
+        <v>654</v>
+      </c>
+      <c r="V14" t="s">
+        <v>656</v>
+      </c>
+      <c r="W14" t="s">
+        <v>654</v>
+      </c>
+      <c r="X14">
+        <v>60</v>
+      </c>
+      <c r="Y14">
+        <v>90</v>
+      </c>
+      <c r="Z14">
+        <v>5.1333333333333337</v>
+      </c>
+      <c r="AA14">
+        <v>6.3666666666666671</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>654</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>672</v>
+      </c>
+      <c r="AD14">
+        <v>-61.6</v>
+      </c>
+      <c r="AE14">
+        <v>-41.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>40.233600000000003</v>
+      </c>
+      <c r="E15">
+        <v>40.233600000000003</v>
+      </c>
+      <c r="F15">
+        <v>0.18</v>
+      </c>
+      <c r="G15">
+        <v>0.18</v>
+      </c>
+      <c r="H15">
+        <v>1.85</v>
+      </c>
+      <c r="I15">
+        <v>1.85</v>
+      </c>
+      <c r="J15" t="s">
+        <v>662</v>
+      </c>
+      <c r="K15">
+        <v>1.5</v>
+      </c>
+      <c r="L15">
+        <v>1.5</v>
+      </c>
+      <c r="M15">
+        <v>0.46</v>
+      </c>
+      <c r="N15">
+        <v>0.46</v>
+      </c>
+      <c r="O15" t="s">
+        <v>639</v>
+      </c>
+      <c r="P15" t="s">
+        <v>646</v>
+      </c>
+      <c r="S15" t="s">
+        <v>651</v>
+      </c>
+      <c r="T15" t="s">
+        <v>657</v>
+      </c>
+      <c r="U15" t="s">
+        <v>657</v>
+      </c>
+      <c r="V15" t="s">
+        <v>657</v>
+      </c>
+      <c r="W15" t="s">
+        <v>657</v>
+      </c>
+      <c r="X15">
+        <v>180</v>
+      </c>
+      <c r="Y15">
+        <v>180</v>
+      </c>
+      <c r="Z15">
+        <v>4.5</v>
+      </c>
+      <c r="AA15">
+        <v>7</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>672</v>
+      </c>
+      <c r="AD15">
+        <v>-29.444444444444443</v>
+      </c>
+      <c r="AE15">
+        <v>-29.444444444444443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16">
+        <v>25.8</v>
+      </c>
+      <c r="C16">
+        <v>25.8</v>
+      </c>
+      <c r="D16">
+        <v>50.292000000000002</v>
+      </c>
+      <c r="E16">
+        <v>50.292000000000002</v>
+      </c>
+      <c r="F16">
+        <v>0.2355284469075489</v>
+      </c>
+      <c r="G16">
+        <v>0.2355284469075489</v>
+      </c>
+      <c r="H16">
+        <v>1.8843894883257002</v>
+      </c>
+      <c r="I16">
+        <v>1.8843894883257002</v>
+      </c>
+      <c r="J16" t="s">
+        <v>662</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0.4</v>
+      </c>
+      <c r="N16">
+        <v>0.4</v>
+      </c>
+      <c r="O16" t="s">
+        <v>639</v>
+      </c>
+      <c r="P16" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q16">
+        <v>300</v>
+      </c>
+      <c r="R16">
+        <v>300</v>
+      </c>
+      <c r="S16" t="s">
+        <v>651</v>
+      </c>
+      <c r="T16" t="s">
+        <v>653</v>
+      </c>
+      <c r="U16" t="s">
+        <v>657</v>
+      </c>
+      <c r="V16" t="s">
+        <v>657</v>
+      </c>
+      <c r="W16" t="s">
+        <v>661</v>
+      </c>
+      <c r="X16">
+        <v>150</v>
+      </c>
+      <c r="Y16">
+        <v>150</v>
+      </c>
+      <c r="Z16">
+        <v>4.5</v>
+      </c>
+      <c r="AA16">
+        <v>6.5</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>672</v>
+      </c>
+      <c r="AD16">
+        <v>-27.7</v>
+      </c>
+      <c r="AE16">
+        <v>-27.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17">
+        <v>125</v>
+      </c>
+      <c r="C17">
+        <v>895.59</v>
+      </c>
+      <c r="D17">
+        <v>17.9832</v>
+      </c>
+      <c r="E17">
+        <v>39.928800000000003</v>
+      </c>
+      <c r="F17">
+        <v>0.26481782300953649</v>
+      </c>
+      <c r="G17">
+        <v>0.26481782300953649</v>
+      </c>
+      <c r="H17">
+        <v>1.7375489102695705</v>
+      </c>
+      <c r="I17">
+        <v>1.7375489102695705</v>
+      </c>
+      <c r="J17" t="s">
+        <v>662</v>
+      </c>
+      <c r="K17">
+        <v>1.5</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>0.46</v>
+      </c>
+      <c r="N17">
+        <v>0.46</v>
+      </c>
+      <c r="O17" t="s">
+        <v>639</v>
+      </c>
+      <c r="P17" t="s">
+        <v>643</v>
+      </c>
+      <c r="S17" t="s">
+        <v>651</v>
+      </c>
+      <c r="T17" t="s">
+        <v>679</v>
+      </c>
+      <c r="U17" t="s">
+        <v>654</v>
+      </c>
+      <c r="V17" t="s">
+        <v>654</v>
+      </c>
+      <c r="W17" t="s">
+        <v>658</v>
+      </c>
+      <c r="X17">
+        <v>140</v>
+      </c>
+      <c r="Y17">
+        <v>270</v>
+      </c>
+      <c r="Z17">
+        <v>4.4333333333333336</v>
+      </c>
+      <c r="AA17">
+        <v>6.0666666666666664</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD17">
+        <v>-34</v>
+      </c>
+      <c r="AE17">
+        <v>-22.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C18">
+        <v>8.5</v>
+      </c>
+      <c r="D18">
+        <v>18.288</v>
+      </c>
+      <c r="E18">
+        <v>60.96</v>
+      </c>
+      <c r="F18">
+        <v>8.6001717619175692E-3</v>
+      </c>
+      <c r="G18">
+        <v>0.11561051167429974</v>
+      </c>
+      <c r="H18">
+        <v>2.1877858207239069</v>
+      </c>
+      <c r="I18">
+        <v>2.485452247339714</v>
+      </c>
+      <c r="J18" t="s">
+        <v>662</v>
+      </c>
+      <c r="K18">
+        <v>0.3</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>0.33</v>
+      </c>
+      <c r="N18">
+        <v>0.38</v>
+      </c>
+      <c r="O18" t="s">
+        <v>637</v>
+      </c>
+      <c r="P18" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q18">
+        <v>350</v>
+      </c>
+      <c r="R18">
+        <v>900</v>
+      </c>
+      <c r="S18" t="s">
+        <v>649</v>
+      </c>
+      <c r="T18" t="s">
+        <v>654</v>
+      </c>
+      <c r="U18" t="s">
+        <v>682</v>
+      </c>
+      <c r="V18" t="s">
+        <v>658</v>
+      </c>
+      <c r="W18" t="s">
+        <v>654</v>
+      </c>
+      <c r="X18">
+        <v>30</v>
+      </c>
+      <c r="Y18">
+        <v>160</v>
+      </c>
+      <c r="Z18">
+        <v>4.7833333333333332</v>
+      </c>
+      <c r="AA18">
+        <v>6.8833333333333337</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>654</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>675</v>
+      </c>
+      <c r="AD18">
+        <v>-61.6</v>
+      </c>
+      <c r="AE18">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19">
+        <v>3.4529999999999998</v>
+      </c>
+      <c r="C19">
+        <v>815.9</v>
+      </c>
+      <c r="D19">
+        <v>10.058400000000001</v>
+      </c>
+      <c r="E19">
+        <v>70.103999999999999</v>
+      </c>
+      <c r="F19">
+        <v>-8.6186147616283335E-2</v>
+      </c>
+      <c r="G19">
+        <v>0.15381486434452901</v>
+      </c>
+      <c r="H19">
+        <v>1.38</v>
+      </c>
+      <c r="I19">
+        <v>2.8728952016351923</v>
+      </c>
+      <c r="J19" t="s">
+        <v>665</v>
+      </c>
+      <c r="K19">
+        <v>0.25</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>0.34</v>
+      </c>
+      <c r="N19">
+        <v>0.54</v>
+      </c>
+      <c r="O19" t="s">
+        <v>637</v>
+      </c>
+      <c r="P19" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q19">
+        <v>90</v>
+      </c>
+      <c r="R19">
+        <v>5000</v>
+      </c>
+      <c r="S19" t="s">
+        <v>650</v>
+      </c>
+      <c r="T19" t="s">
+        <v>682</v>
+      </c>
+      <c r="U19" t="s">
+        <v>682</v>
+      </c>
+      <c r="V19" t="s">
+        <v>659</v>
+      </c>
+      <c r="W19" t="s">
+        <v>682</v>
+      </c>
+      <c r="X19">
+        <v>50</v>
+      </c>
+      <c r="Y19">
+        <v>265</v>
+      </c>
+      <c r="Z19">
+        <v>5.1296296296296298</v>
+      </c>
+      <c r="AA19">
+        <v>7.1592592592592608</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD19">
+        <v>-56.6</v>
+      </c>
+      <c r="AE19">
+        <v>-8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20">
+        <v>3.4529999999999998</v>
+      </c>
+      <c r="C20">
+        <v>815.9</v>
+      </c>
+      <c r="D20">
+        <v>10.058400000000001</v>
+      </c>
+      <c r="E20">
+        <v>70.103999999999999</v>
+      </c>
+      <c r="F20">
+        <v>-8.6186147616283335E-2</v>
+      </c>
+      <c r="G20">
+        <v>0.15381486434452901</v>
+      </c>
+      <c r="H20">
+        <v>1.38</v>
+      </c>
+      <c r="I20">
+        <v>2.8728952016351923</v>
+      </c>
+      <c r="J20" t="s">
+        <v>665</v>
+      </c>
+      <c r="K20">
+        <v>0.25</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0.34</v>
+      </c>
+      <c r="N20">
+        <v>0.54</v>
+      </c>
+      <c r="O20" t="s">
+        <v>637</v>
+      </c>
+      <c r="P20" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q20">
+        <v>90</v>
+      </c>
+      <c r="R20">
+        <v>5000</v>
+      </c>
+      <c r="S20" t="s">
+        <v>650</v>
+      </c>
+      <c r="T20" t="s">
+        <v>682</v>
+      </c>
+      <c r="U20" t="s">
+        <v>682</v>
+      </c>
+      <c r="V20" t="s">
+        <v>659</v>
+      </c>
+      <c r="W20" t="s">
+        <v>682</v>
+      </c>
+      <c r="X20">
+        <v>50</v>
+      </c>
+      <c r="Y20">
+        <v>265</v>
+      </c>
+      <c r="Z20">
+        <v>5.1296296296296298</v>
+      </c>
+      <c r="AA20">
+        <v>7.1592592592592608</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD20">
+        <v>-56.6</v>
+      </c>
+      <c r="AE20">
+        <v>-8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21">
+        <v>3.4529999999999998</v>
+      </c>
+      <c r="C21">
+        <v>815.9</v>
+      </c>
+      <c r="D21">
+        <v>10.058400000000001</v>
+      </c>
+      <c r="E21">
+        <v>70.103999999999999</v>
+      </c>
+      <c r="F21">
+        <v>-8.6186147616283335E-2</v>
+      </c>
+      <c r="G21">
+        <v>0.15381486434452901</v>
+      </c>
+      <c r="H21">
+        <v>1.38</v>
+      </c>
+      <c r="I21">
+        <v>2.8728952016351923</v>
+      </c>
+      <c r="J21" t="s">
+        <v>665</v>
+      </c>
+      <c r="K21">
+        <v>0.25</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21">
+        <v>0.34</v>
+      </c>
+      <c r="N21">
+        <v>0.54</v>
+      </c>
+      <c r="O21" t="s">
+        <v>637</v>
+      </c>
+      <c r="P21" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q21">
+        <v>90</v>
+      </c>
+      <c r="R21">
+        <v>5000</v>
+      </c>
+      <c r="S21" t="s">
+        <v>650</v>
+      </c>
+      <c r="T21" t="s">
+        <v>682</v>
+      </c>
+      <c r="U21" t="s">
+        <v>682</v>
+      </c>
+      <c r="V21" t="s">
+        <v>659</v>
+      </c>
+      <c r="W21" t="s">
+        <v>682</v>
+      </c>
+      <c r="X21">
+        <v>50</v>
+      </c>
+      <c r="Y21">
+        <v>265</v>
+      </c>
+      <c r="Z21">
+        <v>5.1296296296296298</v>
+      </c>
+      <c r="AA21">
+        <v>7.1592592592592608</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD21">
+        <v>-56.6</v>
+      </c>
+      <c r="AE21">
+        <v>-8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22">
+        <v>2.83</v>
+      </c>
+      <c r="C22">
+        <v>3.42</v>
+      </c>
+      <c r="D22">
+        <v>30.48</v>
+      </c>
+      <c r="E22">
+        <v>35.052</v>
+      </c>
+      <c r="F22">
+        <v>0.31597034545691771</v>
+      </c>
+      <c r="G22">
+        <v>0.31597034545691771</v>
+      </c>
+      <c r="H22">
+        <v>1.838631997765025</v>
+      </c>
+      <c r="I22">
+        <v>1.838631997765025</v>
+      </c>
+      <c r="J22" t="s">
+        <v>662</v>
+      </c>
+      <c r="K22">
+        <v>3.5</v>
+      </c>
+      <c r="L22">
+        <v>3.5</v>
+      </c>
+      <c r="M22">
+        <v>0.46</v>
+      </c>
+      <c r="N22">
+        <v>0.46</v>
+      </c>
+      <c r="O22" t="s">
+        <v>639</v>
+      </c>
+      <c r="P22" t="s">
+        <v>646</v>
+      </c>
+      <c r="S22" t="s">
+        <v>651</v>
+      </c>
+      <c r="T22" t="s">
+        <v>661</v>
+      </c>
+      <c r="U22" t="s">
+        <v>683</v>
+      </c>
+      <c r="V22" t="s">
+        <v>658</v>
+      </c>
+      <c r="W22" t="s">
+        <v>658</v>
+      </c>
+      <c r="X22">
+        <v>100</v>
+      </c>
+      <c r="Y22">
+        <v>220</v>
+      </c>
+      <c r="Z22">
+        <v>5.35</v>
+      </c>
+      <c r="AA22">
+        <v>6.9</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>673</v>
+      </c>
+      <c r="AD22">
+        <v>-36.666666666666664</v>
+      </c>
+      <c r="AE22">
+        <v>-13.888888888888889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23">
+        <v>0.1</v>
+      </c>
+      <c r="C23">
+        <v>3.01</v>
+      </c>
+      <c r="D23">
+        <v>18.288</v>
+      </c>
+      <c r="E23">
+        <v>30.48</v>
+      </c>
+      <c r="F23">
+        <v>0.22010808804005508</v>
+      </c>
+      <c r="G23">
+        <v>0.38069792160548382</v>
+      </c>
+      <c r="H23">
+        <v>1.8434819430399576</v>
+      </c>
+      <c r="I23">
+        <v>2.0767559813697236</v>
+      </c>
+      <c r="J23" t="s">
+        <v>665</v>
+      </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <v>1.2</v>
+      </c>
+      <c r="M23">
+        <v>0.35</v>
+      </c>
+      <c r="N23">
+        <v>0.43</v>
+      </c>
+      <c r="O23" t="s">
+        <v>639</v>
+      </c>
+      <c r="P23" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q23">
+        <v>80</v>
+      </c>
+      <c r="R23">
+        <v>200</v>
+      </c>
+      <c r="S23" t="s">
+        <v>651</v>
+      </c>
+      <c r="T23" t="s">
+        <v>679</v>
+      </c>
+      <c r="U23" t="s">
+        <v>679</v>
+      </c>
+      <c r="V23" t="s">
+        <v>658</v>
+      </c>
+      <c r="W23" t="s">
+        <v>665</v>
+      </c>
+      <c r="X23">
+        <v>70</v>
+      </c>
+      <c r="Y23">
+        <v>180</v>
+      </c>
+      <c r="Z23">
+        <v>4.9714285714285724</v>
+      </c>
+      <c r="AA23">
+        <v>7.3</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>672</v>
+      </c>
+      <c r="AD23">
+        <v>-61.666666666666664</v>
+      </c>
+      <c r="AE23">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24">
+        <v>191</v>
+      </c>
+      <c r="C24">
+        <v>6145</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>40.233600000000003</v>
+      </c>
+      <c r="F24">
+        <v>-5.0609993355087209E-2</v>
+      </c>
+      <c r="G24">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.8958544494459917</v>
+      </c>
+      <c r="I24">
+        <v>2.2546930594110726</v>
+      </c>
+      <c r="J24" t="s">
+        <v>665</v>
+      </c>
+      <c r="K24">
+        <v>0.15</v>
+      </c>
+      <c r="L24">
+        <v>2.5</v>
+      </c>
+      <c r="M24">
+        <v>0.52</v>
+      </c>
+      <c r="N24">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="O24" t="s">
+        <v>638</v>
+      </c>
+      <c r="P24" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q24">
+        <v>150</v>
+      </c>
+      <c r="R24">
+        <v>600</v>
+      </c>
+      <c r="S24" t="s">
+        <v>650</v>
+      </c>
+      <c r="T24" t="s">
+        <v>682</v>
+      </c>
+      <c r="U24" t="s">
+        <v>682</v>
+      </c>
+      <c r="V24" t="s">
+        <v>659</v>
+      </c>
+      <c r="W24" t="s">
+        <v>682</v>
+      </c>
+      <c r="X24">
+        <v>63</v>
+      </c>
+      <c r="Y24">
+        <v>270</v>
+      </c>
+      <c r="Z24">
+        <v>4.7066666666666652</v>
+      </c>
+      <c r="AA24">
+        <v>6.910000000000001</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD24">
+        <v>-41.666666666666664</v>
+      </c>
+      <c r="AE24">
+        <v>-11.666666666666666</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25">
+        <v>0.06</v>
+      </c>
+      <c r="C25">
+        <v>0.18</v>
+      </c>
+      <c r="D25">
+        <v>7.62</v>
+      </c>
+      <c r="E25">
+        <v>20.116800000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="G25">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="H25">
+        <v>1.7471469690201069</v>
+      </c>
+      <c r="I25">
+        <v>1.7471469690201069</v>
+      </c>
+      <c r="J25" t="s">
+        <v>665</v>
+      </c>
+      <c r="K25">
+        <v>0.3</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>0.36</v>
+      </c>
+      <c r="N25">
+        <v>0.36</v>
+      </c>
+      <c r="O25" t="s">
+        <v>639</v>
+      </c>
+      <c r="P25" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q25">
+        <v>85</v>
+      </c>
+      <c r="R25">
+        <v>85</v>
+      </c>
+      <c r="S25" t="s">
+        <v>651</v>
+      </c>
+      <c r="T25" t="s">
+        <v>660</v>
+      </c>
+      <c r="U25" t="s">
+        <v>658</v>
+      </c>
+      <c r="V25" t="s">
+        <v>655</v>
+      </c>
+      <c r="W25" t="s">
+        <v>679</v>
+      </c>
+      <c r="X25">
+        <v>80</v>
+      </c>
+      <c r="Y25">
+        <v>170</v>
+      </c>
+      <c r="Z25">
+        <v>5.2</v>
+      </c>
+      <c r="AA25">
+        <v>8.0749999999999993</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>673</v>
+      </c>
+      <c r="AD25">
+        <v>-50</v>
+      </c>
+      <c r="AE25">
+        <v>-16.666666666666668</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="C26">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="D26">
+        <v>39.624000000000002</v>
+      </c>
+      <c r="E26">
+        <v>39.624000000000002</v>
+      </c>
+      <c r="F26">
+        <v>7.554696139253074E-2</v>
+      </c>
+      <c r="G26">
+        <v>7.554696139253074E-2</v>
+      </c>
+      <c r="H26">
+        <v>2.1079053973095196</v>
+      </c>
+      <c r="I26">
+        <v>2.1079053973095196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>662</v>
+      </c>
+      <c r="K26">
+        <v>1.5</v>
+      </c>
+      <c r="L26">
+        <v>1.5</v>
+      </c>
+      <c r="M26">
+        <v>0.42</v>
+      </c>
+      <c r="N26">
+        <v>0.42</v>
+      </c>
+      <c r="O26" t="s">
+        <v>639</v>
+      </c>
+      <c r="P26" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q26">
+        <v>1200</v>
+      </c>
+      <c r="R26">
+        <v>1200</v>
+      </c>
+      <c r="S26" t="s">
+        <v>651</v>
+      </c>
+      <c r="T26" t="s">
+        <v>662</v>
+      </c>
+      <c r="U26" t="s">
+        <v>653</v>
+      </c>
+      <c r="V26" t="s">
+        <v>657</v>
+      </c>
+      <c r="W26" t="s">
+        <v>657</v>
+      </c>
+      <c r="X26">
+        <v>160</v>
+      </c>
+      <c r="Y26">
+        <v>160</v>
+      </c>
+      <c r="Z26">
+        <v>4.5</v>
+      </c>
+      <c r="AA26">
+        <v>6</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>662</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>676</v>
+      </c>
+      <c r="AD26">
+        <v>-27.7</v>
+      </c>
+      <c r="AE26">
+        <v>-27.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27">
+        <v>30.49</v>
+      </c>
+      <c r="C27">
+        <v>30.49</v>
+      </c>
+      <c r="D27">
+        <v>18.288</v>
+      </c>
+      <c r="E27">
+        <v>18.288</v>
+      </c>
+      <c r="J27" t="s">
+        <v>662</v>
+      </c>
+      <c r="K27">
+        <v>0.6</v>
+      </c>
+      <c r="L27">
+        <v>0.6</v>
+      </c>
+      <c r="M27">
+        <v>0.6</v>
+      </c>
+      <c r="N27">
+        <v>0.6</v>
+      </c>
+      <c r="O27" t="s">
+        <v>637</v>
+      </c>
+      <c r="P27" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q27">
+        <v>350</v>
+      </c>
+      <c r="R27">
+        <v>350</v>
+      </c>
+      <c r="S27" t="s">
+        <v>651</v>
+      </c>
+      <c r="T27" t="s">
+        <v>653</v>
+      </c>
+      <c r="U27" t="s">
+        <v>657</v>
+      </c>
+      <c r="V27" t="s">
+        <v>661</v>
+      </c>
+      <c r="W27" t="s">
+        <v>657</v>
+      </c>
+      <c r="X27">
+        <v>140</v>
+      </c>
+      <c r="Y27">
+        <v>140</v>
+      </c>
+      <c r="Z27">
+        <v>6.2</v>
+      </c>
+      <c r="AA27">
+        <v>7.5</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD27">
+        <v>-27.7</v>
+      </c>
+      <c r="AE27">
+        <v>-27.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28">
+        <v>95.5</v>
+      </c>
+      <c r="C28">
+        <v>95.5</v>
+      </c>
+      <c r="D28">
+        <v>20.116800000000001</v>
+      </c>
+      <c r="E28">
+        <v>24.993600000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="G28">
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H28">
+        <v>1.7399286120149253</v>
+      </c>
+      <c r="I28">
+        <v>1.7399286120149253</v>
+      </c>
+      <c r="J28" t="s">
+        <v>662</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <v>1.5</v>
+      </c>
+      <c r="M28">
+        <v>0.32</v>
+      </c>
+      <c r="N28">
+        <v>0.32</v>
+      </c>
+      <c r="O28" t="s">
+        <v>639</v>
+      </c>
+      <c r="P28" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q28">
+        <v>200</v>
+      </c>
+      <c r="R28">
+        <v>200</v>
+      </c>
+      <c r="S28" t="s">
+        <v>651</v>
+      </c>
+      <c r="T28" t="s">
+        <v>653</v>
+      </c>
+      <c r="U28" t="s">
+        <v>657</v>
+      </c>
+      <c r="V28" t="s">
+        <v>657</v>
+      </c>
+      <c r="W28" t="s">
+        <v>661</v>
+      </c>
+      <c r="X28">
+        <v>80</v>
+      </c>
+      <c r="Y28">
+        <v>80</v>
+      </c>
+      <c r="Z28">
+        <v>4.5</v>
+      </c>
+      <c r="AA28">
+        <v>7.5</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD28">
+        <v>-43.333333333333336</v>
+      </c>
+      <c r="AE28">
+        <v>-43.333333333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>5.26</v>
+      </c>
+      <c r="D29">
+        <v>21.336000000000002</v>
+      </c>
+      <c r="E29">
+        <v>65.531999999999996</v>
+      </c>
+      <c r="F29">
+        <v>-4.3648054024500883E-3</v>
+      </c>
+      <c r="G29">
+        <v>0.17026171539495738</v>
+      </c>
+      <c r="H29">
+        <v>2.0883098412461387</v>
+      </c>
+      <c r="I29">
+        <v>2.0883098412461387</v>
+      </c>
+      <c r="J29" t="s">
+        <v>662</v>
+      </c>
+      <c r="K29">
+        <v>0.3</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>0.38</v>
+      </c>
+      <c r="N29">
+        <v>0.42</v>
+      </c>
+      <c r="O29" t="s">
+        <v>637</v>
+      </c>
+      <c r="P29" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q29">
+        <v>400</v>
+      </c>
+      <c r="R29">
+        <v>800</v>
+      </c>
+      <c r="S29" t="s">
+        <v>649</v>
+      </c>
+      <c r="T29" t="s">
+        <v>653</v>
+      </c>
+      <c r="U29" t="s">
+        <v>654</v>
+      </c>
+      <c r="V29" t="s">
+        <v>657</v>
+      </c>
+      <c r="W29" t="s">
+        <v>658</v>
+      </c>
+      <c r="X29">
+        <v>80</v>
+      </c>
+      <c r="Y29">
+        <v>175</v>
+      </c>
+      <c r="Z29">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AA29">
+        <v>6.2250000000000005</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD29">
+        <v>-36.1</v>
+      </c>
+      <c r="AE29">
+        <v>-18.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30">
+        <v>3.02</v>
+      </c>
+      <c r="C30">
+        <v>60.5</v>
+      </c>
+      <c r="D30">
+        <v>20.116800000000001</v>
+      </c>
+      <c r="E30">
+        <v>40.233600000000003</v>
+      </c>
+      <c r="F30">
+        <v>0.30105170984522639</v>
+      </c>
+      <c r="G30">
+        <v>0.3979400086720376</v>
+      </c>
+      <c r="H30">
+        <v>1.7772835288524167</v>
+      </c>
+      <c r="I30">
+        <v>1.8129024994165228</v>
+      </c>
+      <c r="J30" t="s">
+        <v>665</v>
+      </c>
+      <c r="K30">
+        <v>0.6</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>0.46</v>
+      </c>
+      <c r="N30">
+        <v>0.6</v>
+      </c>
+      <c r="O30" t="s">
+        <v>639</v>
+      </c>
+      <c r="P30" t="s">
+        <v>643</v>
+      </c>
+      <c r="Q30">
+        <v>300</v>
+      </c>
+      <c r="R30">
+        <v>300</v>
+      </c>
+      <c r="S30" t="s">
+        <v>651</v>
+      </c>
+      <c r="T30" t="s">
+        <v>654</v>
+      </c>
+      <c r="U30" t="s">
+        <v>658</v>
+      </c>
+      <c r="V30" t="s">
+        <v>658</v>
+      </c>
+      <c r="W30" t="s">
+        <v>658</v>
+      </c>
+      <c r="X30">
+        <v>80</v>
+      </c>
+      <c r="Y30">
+        <v>220</v>
+      </c>
+      <c r="Z30">
+        <v>4.916666666666667</v>
+      </c>
+      <c r="AA30">
+        <v>7.5166666666666666</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>654</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>675</v>
+      </c>
+      <c r="AD30">
+        <v>-43.333333333333336</v>
+      </c>
+      <c r="AE30">
+        <v>-23.333333333333332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B31">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C31">
+        <v>101.1</v>
+      </c>
+      <c r="D31">
+        <v>7.0104000000000006</v>
+      </c>
+      <c r="E31">
+        <v>99.974400000000003</v>
+      </c>
+      <c r="F31">
+        <v>-0.12147820449879346</v>
+      </c>
+      <c r="G31">
+        <v>0.21484384804769785</v>
+      </c>
+      <c r="H31">
+        <v>2.1079053973095196</v>
+      </c>
+      <c r="I31">
+        <v>2.8927900303521317</v>
+      </c>
+      <c r="J31" t="s">
+        <v>662</v>
+      </c>
+      <c r="K31">
+        <v>0.3</v>
+      </c>
+      <c r="L31">
+        <v>15</v>
+      </c>
+      <c r="M31">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="N31">
+        <v>0.48</v>
+      </c>
+      <c r="O31" t="s">
+        <v>638</v>
+      </c>
+      <c r="P31" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q31">
+        <v>90</v>
+      </c>
+      <c r="R31">
+        <v>3500</v>
+      </c>
+      <c r="S31" t="s">
+        <v>650</v>
+      </c>
+      <c r="T31" t="s">
+        <v>682</v>
+      </c>
+      <c r="U31" t="s">
+        <v>682</v>
+      </c>
+      <c r="V31" t="s">
+        <v>682</v>
+      </c>
+      <c r="W31" t="s">
+        <v>683</v>
+      </c>
+      <c r="X31">
+        <v>100</v>
+      </c>
+      <c r="Y31">
+        <v>180</v>
+      </c>
+      <c r="Z31">
+        <v>5.138461538461538</v>
+      </c>
+      <c r="AA31">
+        <v>7.4769230769230761</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD31">
+        <v>-41.6</v>
+      </c>
+      <c r="AE31">
+        <v>-13.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C32">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="D32">
+        <v>11.8872</v>
+      </c>
+      <c r="E32">
+        <v>11.8872</v>
+      </c>
+      <c r="K32">
+        <v>0.35</v>
+      </c>
+      <c r="L32">
+        <v>0.35</v>
+      </c>
+      <c r="M32">
+        <v>0.51</v>
+      </c>
+      <c r="N32">
+        <v>0.51</v>
+      </c>
+      <c r="O32" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33">
+        <v>17.2</v>
+      </c>
+      <c r="C33">
+        <v>17.2</v>
+      </c>
+      <c r="D33">
+        <v>14.9352</v>
+      </c>
+      <c r="E33">
+        <v>14.9352</v>
+      </c>
+      <c r="F33">
+        <v>4.8813785625257025E-2</v>
+      </c>
+      <c r="G33">
+        <v>4.8813785625257025E-2</v>
+      </c>
+      <c r="H33">
+        <v>2.1330596427539095</v>
+      </c>
+      <c r="I33">
+        <v>2.1330596427539095</v>
+      </c>
+      <c r="J33" t="s">
+        <v>662</v>
+      </c>
+      <c r="K33">
+        <v>0.6</v>
+      </c>
+      <c r="L33">
+        <v>0.6</v>
+      </c>
+      <c r="M33">
+        <v>0.5</v>
+      </c>
+      <c r="N33">
+        <v>0.5</v>
+      </c>
+      <c r="O33" t="s">
+        <v>637</v>
+      </c>
+      <c r="P33" t="s">
+        <v>644</v>
+      </c>
+      <c r="S33" t="s">
+        <v>649</v>
+      </c>
+      <c r="T33" t="s">
+        <v>657</v>
+      </c>
+      <c r="U33" t="s">
+        <v>657</v>
+      </c>
+      <c r="V33" t="s">
+        <v>661</v>
+      </c>
+      <c r="W33" t="s">
+        <v>657</v>
+      </c>
+      <c r="X33">
+        <v>140</v>
+      </c>
+      <c r="Y33">
+        <v>140</v>
+      </c>
+      <c r="Z33">
+        <v>4.5</v>
+      </c>
+      <c r="AA33">
+        <v>7</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD33">
+        <v>-28.888888888888889</v>
+      </c>
+      <c r="AE33">
+        <v>-28.888888888888889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34">
+        <v>313.95</v>
+      </c>
+      <c r="C34">
+        <v>313.95</v>
+      </c>
+      <c r="D34">
+        <v>8.2295999999999996</v>
+      </c>
+      <c r="E34">
+        <v>24.99</v>
+      </c>
+      <c r="J34" t="s">
+        <v>662</v>
+      </c>
+      <c r="K34">
+        <v>0.15</v>
+      </c>
+      <c r="L34">
+        <v>0.48</v>
+      </c>
+      <c r="O34" t="s">
+        <v>637</v>
+      </c>
+      <c r="P34" t="s">
+        <v>644</v>
+      </c>
+      <c r="S34" t="s">
+        <v>651</v>
+      </c>
+      <c r="T34" t="s">
+        <v>657</v>
+      </c>
+      <c r="U34" t="s">
+        <v>661</v>
+      </c>
+      <c r="V34" t="s">
+        <v>657</v>
+      </c>
+      <c r="W34" t="s">
+        <v>657</v>
+      </c>
+      <c r="X34">
+        <v>180</v>
+      </c>
+      <c r="Y34">
+        <v>180</v>
+      </c>
+      <c r="Z34">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AA34">
+        <v>7.8</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD34">
+        <v>-8.8888888888888893</v>
+      </c>
+      <c r="AE34">
+        <v>-8.8888888888888893</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35">
+        <v>42.23</v>
+      </c>
+      <c r="C35">
+        <v>333.33</v>
+      </c>
+      <c r="D35">
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="E35">
+        <v>14.9352</v>
+      </c>
+      <c r="K35">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L35">
+        <v>0.15</v>
+      </c>
+      <c r="O35" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36">
+        <v>0.18</v>
+      </c>
+      <c r="C36">
+        <v>227</v>
+      </c>
+      <c r="D36">
+        <v>7.9248000000000003</v>
+      </c>
+      <c r="E36">
+        <v>18.288</v>
+      </c>
+      <c r="F36">
+        <v>0.1021900563973052</v>
+      </c>
+      <c r="G36">
+        <v>0.26951294421791633</v>
+      </c>
+      <c r="H36">
+        <v>1.5816987086802545</v>
+      </c>
+      <c r="I36">
+        <v>2.1448988264811093</v>
+      </c>
+      <c r="J36" t="s">
+        <v>662</v>
+      </c>
+      <c r="K36">
+        <v>0.3</v>
+      </c>
+      <c r="L36">
+        <v>1.2</v>
+      </c>
+      <c r="M36">
+        <v>0.5</v>
+      </c>
+      <c r="N36">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O36" t="s">
+        <v>638</v>
+      </c>
+      <c r="P36" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q36">
+        <v>500</v>
+      </c>
+      <c r="R36">
+        <v>500</v>
+      </c>
+      <c r="S36" t="s">
+        <v>649</v>
+      </c>
+      <c r="T36" t="s">
+        <v>653</v>
+      </c>
+      <c r="U36" t="s">
+        <v>683</v>
+      </c>
+      <c r="V36" t="s">
+        <v>665</v>
+      </c>
+      <c r="W36" t="s">
+        <v>658</v>
+      </c>
+      <c r="X36">
+        <v>150</v>
+      </c>
+      <c r="Y36">
+        <v>290</v>
+      </c>
+      <c r="Z36">
+        <v>4.9666666666666668</v>
+      </c>
+      <c r="AA36">
+        <v>7.4333333333333336</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>654</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD36">
+        <v>-25</v>
+      </c>
+      <c r="AE36">
+        <v>-10.555555555555555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37">
+        <v>11.8872</v>
+      </c>
+      <c r="E37">
+        <v>11.8872</v>
+      </c>
+      <c r="O37" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38">
+        <v>9.24</v>
+      </c>
+      <c r="C38">
+        <v>1843</v>
+      </c>
+      <c r="D38">
+        <v>7.9248000000000003</v>
+      </c>
+      <c r="E38">
+        <v>30.48</v>
+      </c>
+      <c r="F38">
+        <v>0.35</v>
+      </c>
+      <c r="G38">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="H38">
+        <v>1.8794260687941502</v>
+      </c>
+      <c r="I38">
+        <v>1.8794260687941502</v>
+      </c>
+      <c r="J38" t="s">
+        <v>679</v>
+      </c>
+      <c r="K38">
+        <v>0.2</v>
+      </c>
+      <c r="L38">
+        <v>1.2</v>
+      </c>
+      <c r="M38">
+        <v>0.53</v>
+      </c>
+      <c r="N38">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="O38" t="s">
+        <v>638</v>
+      </c>
+      <c r="P38" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q38">
+        <v>50</v>
+      </c>
+      <c r="R38">
+        <v>125</v>
+      </c>
+      <c r="S38" t="s">
+        <v>650</v>
+      </c>
+      <c r="T38" t="s">
+        <v>654</v>
+      </c>
+      <c r="U38" t="s">
+        <v>679</v>
+      </c>
+      <c r="V38" t="s">
+        <v>682</v>
+      </c>
+      <c r="W38" t="s">
+        <v>682</v>
+      </c>
+      <c r="X38">
+        <v>140</v>
+      </c>
+      <c r="Y38">
+        <v>365</v>
+      </c>
+      <c r="Z38">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="AA38">
+        <v>8.18888888888889</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD38">
+        <v>-38.333333333333336</v>
+      </c>
+      <c r="AE38">
+        <v>-2.7777777777777777</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39">
+        <v>95.5</v>
+      </c>
+      <c r="C39">
+        <v>95.5</v>
+      </c>
+      <c r="D39">
+        <v>20.116800000000001</v>
+      </c>
+      <c r="E39">
+        <v>24.993600000000001</v>
+      </c>
+      <c r="F39">
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="G39">
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="H39">
+        <v>1.7399286120149253</v>
+      </c>
+      <c r="I39">
+        <v>1.7399286120149253</v>
+      </c>
+      <c r="J39" t="s">
+        <v>662</v>
+      </c>
+      <c r="K39">
+        <v>0.5</v>
+      </c>
+      <c r="L39">
+        <v>1.5</v>
+      </c>
+      <c r="M39">
+        <v>0.32</v>
+      </c>
+      <c r="N39">
+        <v>0.32</v>
+      </c>
+      <c r="O39" t="s">
+        <v>639</v>
+      </c>
+      <c r="P39" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q39">
+        <v>200</v>
+      </c>
+      <c r="R39">
+        <v>200</v>
+      </c>
+      <c r="S39" t="s">
+        <v>649</v>
+      </c>
+      <c r="T39" t="s">
+        <v>653</v>
+      </c>
+      <c r="U39" t="s">
+        <v>657</v>
+      </c>
+      <c r="V39" t="s">
+        <v>657</v>
+      </c>
+      <c r="W39" t="s">
+        <v>661</v>
+      </c>
+      <c r="X39">
+        <v>80</v>
+      </c>
+      <c r="Y39">
+        <v>80</v>
+      </c>
+      <c r="Z39">
+        <v>4.5</v>
+      </c>
+      <c r="AA39">
+        <v>7.5</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD39">
+        <v>-43.333333333333336</v>
+      </c>
+      <c r="AE39">
+        <v>-43.333333333333336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40">
+        <v>1.5</v>
+      </c>
+      <c r="C40">
+        <v>33</v>
+      </c>
+      <c r="D40">
+        <v>7.9248000000000003</v>
+      </c>
+      <c r="E40">
+        <v>20.116800000000001</v>
+      </c>
+      <c r="F40">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G40">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="J40" t="s">
+        <v>662</v>
+      </c>
+      <c r="K40">
+        <v>0.3</v>
+      </c>
+      <c r="L40">
+        <v>1.5</v>
+      </c>
+      <c r="M40">
+        <v>0.44</v>
+      </c>
+      <c r="N40">
+        <v>0.76</v>
+      </c>
+      <c r="O40" t="s">
+        <v>638</v>
+      </c>
+      <c r="P40" t="s">
+        <v>645</v>
+      </c>
+      <c r="S40" t="s">
+        <v>649</v>
+      </c>
+      <c r="T40" t="s">
+        <v>683</v>
+      </c>
+      <c r="U40" t="s">
+        <v>661</v>
+      </c>
+      <c r="V40" t="s">
+        <v>661</v>
+      </c>
+      <c r="W40" t="s">
+        <v>658</v>
+      </c>
+      <c r="X40">
+        <v>140</v>
+      </c>
+      <c r="Y40">
+        <v>180</v>
+      </c>
+      <c r="Z40">
+        <v>4.75</v>
+      </c>
+      <c r="AA40">
+        <v>7.25</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>654</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD40">
+        <v>-36.111111111111107</v>
+      </c>
+      <c r="AE40">
+        <v>-30.555555555555554</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" t="s">
+        <v>192</v>
+      </c>
+      <c r="B41">
+        <v>0.17789192883440993</v>
+      </c>
+      <c r="C41">
+        <v>0.17789192883440993</v>
+      </c>
+      <c r="D41">
+        <v>20.116800000000001</v>
+      </c>
+      <c r="E41">
+        <v>20.116800000000001</v>
+      </c>
+      <c r="O41" t="s">
+        <v>637</v>
+      </c>
+      <c r="P41" t="s">
+        <v>646</v>
+      </c>
+      <c r="S41" t="s">
+        <v>651</v>
+      </c>
+      <c r="T41" t="s">
+        <v>661</v>
+      </c>
+      <c r="U41" t="s">
+        <v>661</v>
+      </c>
+      <c r="V41" t="s">
+        <v>662</v>
+      </c>
+      <c r="X41">
+        <v>365</v>
+      </c>
+      <c r="Y41">
+        <v>365</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD41">
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="AE41">
+        <v>4.4444444444444446</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" t="s">
+        <v>198</v>
+      </c>
+      <c r="B42">
+        <v>0.34216652851020302</v>
+      </c>
+      <c r="C42">
+        <v>17.114999999999998</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="F42">
+        <v>0.38021124171160603</v>
+      </c>
+      <c r="G42">
+        <v>0.38021124171160603</v>
+      </c>
+      <c r="H42">
+        <v>1.838631997765025</v>
+      </c>
+      <c r="I42">
+        <v>1.838631997765025</v>
+      </c>
+      <c r="M42">
+        <v>0.8</v>
+      </c>
+      <c r="N42">
+        <v>0.8</v>
+      </c>
+      <c r="O42" t="s">
+        <v>637</v>
+      </c>
+      <c r="S42" t="s">
+        <v>651</v>
+      </c>
+      <c r="W42" t="s">
+        <v>661</v>
+      </c>
+      <c r="X42">
+        <v>365</v>
+      </c>
+      <c r="Y42">
+        <v>365</v>
+      </c>
+      <c r="AD42">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="AE42">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43">
+        <v>0.11</v>
+      </c>
+      <c r="C43">
+        <v>539</v>
+      </c>
+      <c r="D43">
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="E43">
+        <v>30.48</v>
+      </c>
+      <c r="F43">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G43">
+        <v>0.44715803134221921</v>
+      </c>
+      <c r="H43">
+        <v>1.6989700043360187</v>
+      </c>
+      <c r="I43">
+        <v>2.0282604091122218</v>
+      </c>
+      <c r="J43" t="s">
+        <v>665</v>
+      </c>
+      <c r="K43">
+        <v>0.2</v>
+      </c>
+      <c r="L43">
+        <v>1.5</v>
+      </c>
+      <c r="M43">
+        <v>0.36</v>
+      </c>
+      <c r="N43">
+        <v>0.47</v>
+      </c>
+      <c r="O43" t="s">
+        <v>638</v>
+      </c>
+      <c r="P43" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q43">
+        <v>35</v>
+      </c>
+      <c r="R43">
+        <v>35</v>
+      </c>
+      <c r="S43" t="s">
+        <v>650</v>
+      </c>
+      <c r="T43" t="s">
+        <v>683</v>
+      </c>
+      <c r="U43" t="s">
+        <v>682</v>
+      </c>
+      <c r="V43" t="s">
+        <v>682</v>
+      </c>
+      <c r="W43" t="s">
+        <v>682</v>
+      </c>
+      <c r="X43">
+        <v>88</v>
+      </c>
+      <c r="Y43">
+        <v>207</v>
+      </c>
+      <c r="Z43">
+        <v>5.0571428571428578</v>
+      </c>
+      <c r="AA43">
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>683</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD43">
+        <v>-45.555555555555557</v>
+      </c>
+      <c r="AE43">
+        <v>-2.7777777777777777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D7E56-7BF9-C149-A785-F08534E59607}">
   <dimension ref="A1:BD23"/>
   <sheetViews>
